--- a/Writing/Tables/simulationTable.xlsx
+++ b/Writing/Tables/simulationTable.xlsx
@@ -24,73 +24,406 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>k=1</t>
-  </si>
-  <si>
-    <t>k=2</t>
-  </si>
-  <si>
-    <t>k=3</t>
-  </si>
-  <si>
-    <t>k=4</t>
-  </si>
-  <si>
-    <t>k=5</t>
-  </si>
-  <si>
-    <t>k=6</t>
-  </si>
-  <si>
-    <t>k=7</t>
-  </si>
-  <si>
-    <t>k=8</t>
-  </si>
-  <si>
-    <t>k=9</t>
-  </si>
-  <si>
-    <t>k=10</t>
-  </si>
-  <si>
-    <t>k=15</t>
-  </si>
-  <si>
-    <t>k=20</t>
-  </si>
-  <si>
-    <t>k=25</t>
-  </si>
-  <si>
-    <t>k=30</t>
-  </si>
-  <si>
-    <t>k=35</t>
-  </si>
-  <si>
-    <t>k=40</t>
-  </si>
-  <si>
-    <t>k=45</t>
-  </si>
-  <si>
-    <t>k=50</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= .25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= .4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">N </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">N = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 119</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 50</t>
+    </r>
+  </si>
+  <si>
+    <t>Discrepancies sensitivities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +431,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,17 +467,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -401,157 +949,1424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B3" s="1">
+        <v>0.1042</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1033</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1512</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="0">B3-0.1</f>
+        <v>4.1999999999999954E-3</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T20" si="1">C3-0.1</f>
+        <v>3.2999999999999974E-3</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U20" si="2">D3-0.1</f>
+        <v>9.9999999999988987E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B4" s="1">
+        <v>0.1038</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.9778</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999978E-3</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000013E-3</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000001146E-4</v>
+      </c>
+      <c r="V4">
+        <f>MAX(S3:U21)</f>
+        <v>7.8000000000000014E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B5" s="1">
+        <v>0.1012</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1007</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999927E-3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>6.999999999999923E-4</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B6" s="5">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.1004</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.1041</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.2077</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.65869999999999995</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.94820000000000004</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-4.500000000000004E-3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999758E-4</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>4.0999999999999925E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B7" s="1">
+        <v>9.64E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>-3.600000000000006E-3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>-2.3000000000000104E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B8" s="1">
+        <v>9.98E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1012</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.9899</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000573E-4</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999906E-3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999927E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B9" s="1">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.1003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>-6.2000000000000111E-3</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999472E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B10" s="1">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.28010000000000002</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>-3.7000000000000088E-3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>-2.3000000000000104E-3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>-6.0000000000000331E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B11" s="1">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1008</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.1067</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.2984</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>-2.1000000000000046E-3</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999516E-4</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>6.6999999999999976E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B12" s="1">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.1017</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.57020000000000004</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>-9.000000000000119E-4</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>-3.5000000000000031E-3</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999932E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B13" s="1">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.1013</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.3624</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.9798</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000617E-4</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999956E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B14" s="1">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>-2.7000000000000079E-3</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>-2.3999999999999994E-3</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>-5.0000000000000044E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B15" s="1">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1028</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>5.9999999999998943E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>-4.4000000000000011E-3</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>2.7999999999999969E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.53080000000000005</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>-1.1000000000000038E-3</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>-7.0000000000000617E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9.98E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000573E-4</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>-3.3000000000000113E-3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>-4.6000000000000069E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1013</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>7.8000000000000014E-3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999897E-3</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999956E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.1024</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999994E-3</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999879E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.6855</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>-2.3000000000000104E-3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>-6.1000000000000082E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f>A23*33</f>
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <f>A23*62</f>
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <f>A23*119</f>
+        <v>119</v>
+      </c>
+      <c r="F23">
+        <f>B23-C23</f>
+        <v>-29</v>
+      </c>
+      <c r="H23">
+        <f>5/54</f>
+        <v>9.2592592592592587E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:B40" si="3">A24*33</f>
+        <v>66</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C40" si="4">A24*62</f>
+        <v>124</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D40" si="5">A24*119</f>
+        <v>238</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F40" si="6">B24-C24</f>
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>476</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>595</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>714</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>434</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>833</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>952</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>-232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>558</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>1071</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>-261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>1190</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>-290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>930</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>1785</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>-435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>1240</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>2380</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>825</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>1550</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>2975</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>-725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>1860</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>3570</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>-870</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>1155</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>2170</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>4165</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>-1015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>1320</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>2480</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>4760</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>-1160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>1485</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>2790</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>5355</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="6"/>
+        <v>-1305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>1650</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>3100</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>5950</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="6"/>
+        <v>-1450</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="S3:U20">
+    <sortCondition descending="1" ref="U3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Writing/Tables/simulationTable.xlsx
+++ b/Writing/Tables/simulationTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Dropbox\CJM\Masterproject\Writing\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\projects\2014toogoodtobefalse\Writing\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -492,188 +492,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
